--- a/leetcode/leetcodebk.xlsx
+++ b/leetcode/leetcodebk.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF45B75-CD4F-4661-8323-3B9FE295A651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1296897-2E54-4C3D-AA81-CDC684938F5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
     <sheet name="template" sheetId="14" r:id="rId2"/>
     <sheet name="55" sheetId="13" r:id="rId3"/>
     <sheet name="155" sheetId="4" r:id="rId4"/>
-    <sheet name="215" sheetId="7" r:id="rId5"/>
-    <sheet name="224" sheetId="8" r:id="rId6"/>
-    <sheet name="225" sheetId="5" r:id="rId7"/>
-    <sheet name="295" sheetId="9" r:id="rId8"/>
-    <sheet name="376" sheetId="12" r:id="rId9"/>
-    <sheet name="455" sheetId="10" r:id="rId10"/>
-    <sheet name="402" sheetId="11" r:id="rId11"/>
-    <sheet name="graph" sheetId="3" r:id="rId12"/>
+    <sheet name="207" sheetId="15" r:id="rId5"/>
+    <sheet name="215" sheetId="7" r:id="rId6"/>
+    <sheet name="224" sheetId="8" r:id="rId7"/>
+    <sheet name="225" sheetId="5" r:id="rId8"/>
+    <sheet name="295" sheetId="9" r:id="rId9"/>
+    <sheet name="376" sheetId="12" r:id="rId10"/>
+    <sheet name="455" sheetId="10" r:id="rId11"/>
+    <sheet name="402" sheetId="11" r:id="rId12"/>
+    <sheet name="graph" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="168">
   <si>
     <t>225. Implement Stack using Queues</t>
   </si>
@@ -57,74 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve"> (One Queue, push - O(n)O(n), pop O(1)O(1) )</t>
-  </si>
-  <si>
-    <r>
-      <t>class MyStack {
-private:
-    queue&lt;int&gt; d1;
-    queue&lt;int&gt; d2;
-    queue&lt;int&gt; *p1;
-    queue&lt;int&gt; *p2;
-public:
-    /** Initialize your data structure here. */
-    MyStack() {
-        p1 = &amp;d1;
-        p2 = &amp;d2;
-    }
-    /** Push element x onto stack. */
-    void push(int x) {
-        p2-&gt;push(x);
-        while(!p1-&gt;empty()) {
-            p2-&gt;push(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>p1-&gt;front()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>);
-            p1-&gt;pop();
-        }
-        queue&lt;int&gt; *tmp = p1;
-        p1 = p2;
-        p2 = tmp;
-    }
-    /** Removes the element on top of the stack and returns that element. */
-    int pop() {
-        int ret = p1-&gt;front();
-        p1-&gt;pop();
-        return ret;
-    }
-    /** Get the top element. */
-    int top() {
-        return p1-&gt;front();
-    }
-    /** Returns whether the stack is empty. */
-    bool empty() {
-        return p1-&gt;empty();
-    }
-};
-/**
- * Your MyStack object will be instantiated and called as such:
- * MyStack* obj = new MyStack();
- * obj-&gt;push(x);
- * int param_2 = obj-&gt;pop();
- * int param_3 = obj-&gt;top();
- * bool param_4 = obj-&gt;empty();
- */</t>
-    </r>
   </si>
   <si>
     <t>C++</t>
@@ -742,82 +675,6 @@
     <t>https://leetcode.com/problems/basic-calculator/</t>
   </si>
   <si>
-    <t>class Solution {
-private:
-public:
-    int calculate(string s) {
-        enum State {BEGIN, NUM, OPT};
-        State state = BEGIN;
-        stack&lt;int&gt; data;
-        stack&lt;char&gt; sign; 
-        bool canComp = false;
-        int num = 0;
-        for(int i=0; i&lt;s.size(); i++) {
-            if(' ' == s[i]) continue;
-            switch(state){
-                case BEGIN:
-                    if('0'&lt;=s[i] &amp;&amp; s[i]&lt;='9'){
-                        state = NUM;
-                    }
-                    // "("
-                    else {
-                        state = OPT;
-                    }
-                    i--;
-                    break;
-                case NUM:
-                    if('0'&lt;=s[i] &amp;&amp; s[i]&lt;='9'){
-                        num = num *10 + (s[i] - '0');
-                    }
-                    else {
-                        data.push(num);
-                        if(canComp) compute(data, sign);
-                        state = OPT;
-                        i--;
-                        num = 0;
-                    }
-                    break;
-                case OPT:
-                    if('+'==s[i] || '-'==s[i]) {
-                        sign.push(s[i]);
-                        canComp = true;
-                    }
-                    else if('('==s[i] ){
-                        state = NUM;
-                        canComp = false;
-                    }
-                    else if(')'==s[i] ){
-                        compute(data, sign);
-                    }
-                    else if('0'&lt;=s[i] &amp;&amp; s[i]&lt;='9'){
-                        state = NUM;
-                        i--;
-                    }
-                    break;
-                default:
-                    break;
-            }
-        }
-        if(num != 0){
-            data.push(num);
-            compute(data, sign);
-        }
-        if(data.empty()) return 0;
-        return data.top();
-    }
-    void compute(stack&lt;int&gt; &amp;data, stack&lt;char&gt; &amp;sign){
-        if(data.size() &lt; 2 &amp;&amp; sign.size() &lt; 1) return;
-        int data1 = data.top();
-        data.pop();
-        int data2 = data.top();
-        data.pop();
-        char opt = sign.top();
-        sign.pop();
-        data.push(opt=='+' ? data2 + data1: data2 -data1);
-    }
-};</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1236,140 +1093,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">class MedianFinder {
-	priority_queue&lt;int&gt; bigQ;
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>priority_queue&lt;int, vector&lt;int&gt;, greater&lt;int&gt;&gt; smallQ;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-public:
-	/** initialize your data structure here. */
-	MedianFinder() {
-	}
-	void addNum(int num) {
-		if (bigQ.size() == 0) {
-			bigQ.push(num);
-			</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>return;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-		}
-		if (bigQ.size() == smallQ.size()) {
-			if (bigQ.top() &lt; num) smallQ.push(num);
-			else bigQ.push(num);
-		}
-		else if (bigQ.size() &gt; smallQ.size()) {
-			if (bigQ.top() &lt; num) {
-				smallQ.push(num);
-			}
-			else {
-				smallQ.push(bigQ.top());
-				bigQ.pop();
-				bigQ.push(num);
-			}
-		}
-		else {
-			//bigQ.size() &lt;  smallQ.size()
-			if (smallQ.top() &gt; num) bigQ.push(num);
-			else {
-				bigQ.push(smallQ.top());
-				smallQ.pop();
-				smallQ.push(num);
-			}
-		}
-	}
-	double findMedian() {
-		if (bigQ.size() == smallQ.size()) {
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    //or return double(bigQ.top() + smallQ.top()) / 2;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-			</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>return double(bigQ.top() + smallQ.top()) / 2;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-		}
-		return bigQ.size() &gt; smallQ.size() ? bigQ.top() : smallQ.top();
-	}
-};
-/**
- * Your MedianFinder object will be instantiated and called as such:
- * MedianFinder* obj = new MedianFinder();
- * obj-&gt;addNum(num);
- * double param_2 = obj-&gt;findMedian();
- */</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. 没有加 </t>
     </r>
     <r>
@@ -1519,27 +1242,6 @@
     <t>https://leetcode.com/problems/assign-cookies/</t>
   </si>
   <si>
-    <t>class Solution {
-public:
-    int findContentChildren(vector&lt;int&gt;&amp; g, vector&lt;int&gt;&amp; s) {
-        sort(g.begin(), g.end());
-        sort(s.begin(), s.end());
-        int j = 0;
-        int count = 0;
-        for(int i=0; i&lt;g.size(); i++) {
-            for(; j&lt;s.size(); j++) {
-                if(s[j] &gt;= g[i]) {
-                    j++;
-                    count++;
-                    break;
-                }
-            }
-        }
-        return i;
-    }
-};</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">class Solution {
     public int findContentChildren(int[] g, int[] s) {
@@ -1796,47 +1498,6 @@
   <si>
     <t>java 写法好于 C++
 命名清晰</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">class Solution {
-public:
-	string removeKdigits(string num, int k) {
-		vector&lt;char&gt; s;
-		string result;
-		char cur;
-		for (int i = 0; i &lt; num.length(); i++) {
-			cur = num[i];
-			while (s.size() &gt; 0 &amp;&amp; s.back() &gt; cur &amp;&amp; k-- &gt; 0) s.pop_back();
-			if (!s.empty() || cur != '0') </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s.push_back(cur);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-		}
-		while (!s.empty() &amp;&amp; k-- &gt; 0) s.pop_back();
-		for (char c : s) result += c;
-		if (result.empty()) return "0";
-		return result;
-	}
-};</t>
-    </r>
   </si>
   <si>
     <t>注意笔误s.push_back(cur); 非 num.push_back(cur)</t>
@@ -2057,12 +1718,2081 @@
 };</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>如何区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">红线 （此节点还没有遍历完） 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿线（此节点遍历结束）</t>
+    </r>
+  </si>
+  <si>
+    <t>设置三种遍历状态</t>
+  </si>
+  <si>
+    <t>OVER</t>
+  </si>
+  <si>
+    <t>WAIT</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">struct </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Node {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>label;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   vector&lt;Node*&gt; to;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Node(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>label) : label(label) {}</t>
+    </r>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Solution {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">enum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>STATE {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      WAIT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      RUNNING,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      OVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   };</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>canFinish(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>numCourses, vector&lt;vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt;&amp; prerequisites) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      vector&lt;Node*&gt; graph(numCourses);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      vector&lt;STATE&gt; visit(numCourses, WAIT);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      constructGraph(graph, prerequisites);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>result;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; numCourses; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(visit[i] == WAIT) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            result = dfs(graph, i, visit);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(result == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>constructGraph(vector&lt;Node*&gt; &amp;graph, vector&lt;vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt;&amp; pre) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; graph.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         graph[i] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Node(i);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; pre.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         graph[pre[i][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>to.push_back(graph[pre[i][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>]]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">dfs(vector&lt;Node*&gt; &amp;graph, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>cur, vector&lt;STATE&gt; &amp;visit) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      visit[cur] = RUNNING;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; graph[cur]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>to.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(visit[graph[cur]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>to[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>label] == WAIT) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            result = dfs(graph, graph[cur]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>to[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>label, visit);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">== result) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">else if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(visit[graph[cur]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>to[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>label] == RUNNING) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      visit[cur] = OVER;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">dfs1(vector&lt;Node*&gt; &amp;graph, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">cur, vector&lt;STATE&gt; &amp;visit){        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>result;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    visit[cur] = RUNNING;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>nextLable;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i&lt;graph[cur]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>to.size(); i++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        nextLable = graph[cur]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>to[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF006666"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>label;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(visit[nextLable] == WAIT) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            result = dfs(graph, nextLable, visit);  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">== result) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(visit[nextLable] == RUNNING){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    visit[cur] = OVER;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>12 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>99.63%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of C++ online submissions for Course Schedule.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>13.3 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>89.09%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of C++ online submissions for Course Schedule.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>//   if(prerequisites.size() == 0) return true;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">&gt; v(numCourses, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">&gt; cv(numCourses, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      vector&lt;vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt; e(numCourses);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; prerequisites.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         e[prerequisites[i][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>]].push_back(prerequisites[i][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(!v[i]) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(hasCircle(e, v, cv, i)) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>hasCircle(vector&lt;vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&gt; &amp;e, vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>&gt;&amp;v, vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&amp;cv, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>c) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      v[c] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      cv[c] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; e[c].size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(!cv[e[c][i]]) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(hasCircle(e, v, cv, e[c][i])) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      cv[c] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>邻接矩阵</t>
+  </si>
+  <si>
+    <t>邻接表</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2165,8 +3895,67 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000080"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF660E7A"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF006666"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF455A64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF263238"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
+      <name val="SimSun"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2176,6 +3965,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,7 +4021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2263,6 +4076,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2377,6 +4235,933 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Oval 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036CD343-98BF-424E-AE70-F332AABCE3FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657476" y="10039350"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Oval 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08800350-4573-42CE-97D1-09B9AF60628B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657476" y="9220200"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1A160D-5C60-41E7-B49A-868980B1E9FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724276" y="10029825"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F999EA2C-F179-4819-B01F-7E1B6D5949DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724276" y="9353550"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Oval 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4465661-0CC3-4031-8CE4-EB102758C372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="9725025"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Oval 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957B6A3E-7777-47B0-A298-14FA903BF998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="10010775"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D17177-DC73-4DD2-BC16-63338BD5ACD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="9382125"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C386C6-99D9-46FB-82ED-75CB52C029F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="6"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3028950" y="10201275"/>
+          <a:ext cx="695326" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078E0807-EF75-42FC-B7E2-DC50052E10AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="6"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3028950" y="9525000"/>
+          <a:ext cx="695326" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416351</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174042</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF9FBC8-1472-405F-A8CC-38EAB2E0F51E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="6"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="9525000"/>
+          <a:ext cx="511601" cy="250242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416351</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CABF8E-E19F-4AE7-8A3E-9BDC8BDAC4EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="6"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4095750" y="10017708"/>
+          <a:ext cx="511601" cy="183567"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>679023</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174042</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F0605D-2800-40C5-99CC-27C7747FCEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="7"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4870023" y="9553575"/>
+          <a:ext cx="597327" cy="221667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>679023</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B8A4732-12AB-4D57-A11D-3F937A7447B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="5"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4870023" y="10017708"/>
+          <a:ext cx="606852" cy="164517"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425877</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BA21A0-D34F-4BA1-9016-35F4CA93F570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="6"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="9391650"/>
+          <a:ext cx="749727" cy="12117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>688549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Connector: Curved 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2404B695-42C6-455E-B1A5-D2D56FBAD8AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+          <a:endCxn id="20" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="4836397" y="8587077"/>
+          <a:ext cx="21642" cy="1611738"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1188314"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2424,7 +5209,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2473,7 +5258,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2610,7 +5395,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2791,7 +5576,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2884,7 +5669,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3016,6 +5801,933 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192FBB34-D57F-49F8-B937-8374CFC3B02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657476" y="4838700"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBC0AC2-9EF6-4F00-BDF1-249CFF1E5734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657476" y="4019550"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68805AE2-EF19-4DEF-B484-8DE3D342C3DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724276" y="4829175"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41302F33-B8F2-4D2C-B0D2-1792ADC298B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724276" y="4152900"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B538E11-802A-46F8-826D-1378DBA9121B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="4524375"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D76B0A8-6268-45BA-89D1-AB92626602F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="4810125"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B4AE08-7BFE-41CF-96FC-02A003763F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="4181475"/>
+          <a:ext cx="371474" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3797827-D125-4FAE-B55F-75F9F80955D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3028950" y="5000625"/>
+          <a:ext cx="695326" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4EBF30-C7D7-4496-9ABD-A283B133E8E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3028950" y="4324350"/>
+          <a:ext cx="695326" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>416351</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174042</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A3E0E2-A80D-4FDE-A136-22C2A6CD8D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="4324350"/>
+          <a:ext cx="511601" cy="250242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>416351</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAD6059-43A9-408E-806E-0D9BDFA0CFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4095750" y="4817058"/>
+          <a:ext cx="511601" cy="183567"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679023</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174042</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA88391-2527-4686-B653-DA0C5A1BCE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="7"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4870023" y="4352925"/>
+          <a:ext cx="597327" cy="221667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679023</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB57349-18D1-4A4F-88CC-4E9F28627286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="5"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4870023" y="4817058"/>
+          <a:ext cx="606852" cy="164517"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425877</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022167B0-33E6-4642-9958-7B25150CC31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="4191000"/>
+          <a:ext cx="749727" cy="12117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>688549</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connector: Curved 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5943560E-2101-4415-8D39-54612AC243D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="5" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="4836397" y="3386427"/>
+          <a:ext cx="21642" cy="1611738"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1188314"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3300,7 +7012,7 @@
         <v>376</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3311,7 +7023,7 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3322,7 +7034,7 @@
         <v>402</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3331,11 +7043,117 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE93C81B-018F-4E71-BFDC-586ABA93D637}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="89.875" customWidth="1"/>
+    <col min="5" max="5" width="89.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25">
+      <c r="A1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EFBECC34-3DCD-42E4-BAE5-D562BECE595E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B7C73-9823-4163-88A2-1E29EBBE1584}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E5"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3347,7 +7165,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -3357,7 +7175,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3366,22 +7184,22 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="299.25">
+    <row r="4" spans="1:5" ht="409.5">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3389,13 +7207,13 @@
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3408,12 +7226,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653F58-4956-4421-9009-E00391D6334C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E6"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3425,7 +7243,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -3435,7 +7253,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3444,46 +7262,46 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="346.5">
+    <row r="4" spans="1:5" ht="409.5">
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78.75">
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3496,12 +7314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3516,15 +7334,18 @@
     </row>
     <row r="3" spans="1:5">
       <c r="D3" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3532,7 +7353,7 @@
         <v>215</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
@@ -3546,29 +7367,29 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8">
         <v>7</v>
@@ -3582,28 +7403,61 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="E17" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>207</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" s="23"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32" s="24" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3612,7 +7466,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3640,7 +7494,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3650,7 +7504,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="2"/>
@@ -3659,7 +7513,7 @@
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="2"/>
@@ -3720,7 +7574,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25">
       <c r="A1" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -3730,7 +7584,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="11"/>
       <c r="B2" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3738,22 +7592,22 @@
       <c r="F2" s="21"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H3" s="22"/>
     </row>
@@ -3761,20 +7615,20 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="2"/>
@@ -3814,7 +7668,7 @@
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3843,19 +7697,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3864,10 +7718,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3876,26 +7730,26 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3909,6 +7763,656 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33018385-90F7-499C-8B43-4C2BDB7FF198}">
+  <dimension ref="A1:G103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25">
+      <c r="A1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="3"/>
+      <c r="D6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="29"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="29"/>
+      <c r="F18" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="29"/>
+      <c r="E45" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" ht="24">
+      <c r="D48" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="24">
+      <c r="D49" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="29"/>
+      <c r="E59" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="D60" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="D61" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="D65" s="29"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="29"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="D68" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="D69" s="29"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="D70" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="D72" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="D73" s="37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="D74" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="D76" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="D77" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="D78" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="D79" s="35"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="D80" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="35"/>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="35"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D6134F69-DF9E-498D-B47C-51B3103DEDC3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BB247-CC2B-46B0-988C-6416FE65FF1C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3928,7 +8432,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -3938,7 +8442,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3947,10 +8451,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3959,35 +8463,35 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="236.25">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -3996,29 +8500,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4028,12 +8532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25713CA-613E-4C2D-A4B0-DC15A8BF32D4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4045,7 +8549,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -4055,7 +8559,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -4064,10 +8568,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4076,26 +8580,26 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4104,12 +8608,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:E10"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4131,7 +8635,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4139,29 +8643,29 @@
     </row>
     <row r="4" spans="1:5" ht="409.5">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -4169,37 +8673,37 @@
     </row>
     <row r="7" spans="1:5" ht="409.5">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5">
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.5">
       <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4207,12 +8711,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B18D55-11BE-4A9E-9686-DE2BF23140D6}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:E8"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4224,7 +8728,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -4234,7 +8738,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -4243,10 +8747,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4255,20 +8759,20 @@
       <c r="A4" s="11"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="2"/>
@@ -4276,10 +8780,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4288,10 +8792,10 @@
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -4299,13 +8803,13 @@
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4324,110 +8828,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE93C81B-018F-4E71-BFDC-586ABA93D637}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="A5:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="89.875" customWidth="1"/>
-    <col min="5" max="5" width="89.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
-      <c r="A1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="409.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="409.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="3"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="3"/>
-      <c r="D10" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EFBECC34-3DCD-42E4-BAE5-D562BECE595E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/leetcode/leetcodebk.xlsx
+++ b/leetcode/leetcodebk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\git\Algorithm\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1296897-2E54-4C3D-AA81-CDC684938F5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4B62F8-2441-43BB-881B-A373CB525B61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -5901,7 +5901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657476" y="4019550"/>
+          <a:off x="2657476" y="9220200"/>
           <a:ext cx="371474" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7318,8 +7318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7766,8 +7766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33018385-90F7-499C-8B43-4C2BDB7FF198}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E102" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8408,7 +8408,8 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D6134F69-DF9E-498D-B47C-51B3103DEDC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
